--- a/Mifos Automation Excels/Loan Product/55RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Loanproduct4.xlsx
+++ b/Mifos Automation Excels/Loan Product/55RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Loanproduct4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15435" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
